--- a/AI_Eval_2023_2024.xlsx
+++ b/AI_Eval_2023_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenyildiz/RiderProjects/Stas.Monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{127F88CB-160E-1142-A259-877806F293E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62B591D-B2F2-C840-8D3C-E602F2AC1560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1322,9 +1322,6 @@
 FileReader:94</t>
   </si>
   <si>
-    <t>MainPresenter:178 qui est utiliser dans la méthode MainPresenter.OnPropertyChanged:180</t>
-  </si>
-  <si>
     <t>HumidityRepository:18
 TemperatureRepository:17
 TemperatureRepository:47
@@ -1374,6 +1371,9 @@
   <si>
     <t>Ma bd est configurée dans HumidityRepositoryTests.Setup:11 et dans TemperatureRepository.Setup:10
 c'est une base de donnée de test en mémoire.</t>
+  </si>
+  <si>
+    <t>MainPresenter:178 qui est utilisé dans la méthode MainPresenter.OnPropertyChanged:180</t>
   </si>
 </sst>
 </file>
@@ -1715,46 +1715,41 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1763,14 +1758,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2270,7 +2270,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="32"/>
@@ -2304,11 +2304,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32"/>
@@ -2316,7 +2316,7 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -2352,7 +2352,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -2380,7 +2380,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="51" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -2389,7 +2389,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -2404,7 +2404,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -2420,14 +2420,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="34"/>
+      <c r="Q7" s="31"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -2453,7 +2453,7 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="32"/>
@@ -2462,7 +2462,7 @@
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -2478,14 +2478,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="34"/>
+      <c r="Q9" s="31"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="R10" s="32"/>
@@ -2510,7 +2510,7 @@
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -2526,14 +2526,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="31"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -2562,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="36" t="s">
+      <c r="Q12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="R12" s="32"/>
@@ -2590,7 +2590,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="32"/>
@@ -2617,7 +2617,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -2635,7 +2635,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -2656,14 +2656,14 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="34"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -2684,7 +2684,7 @@
       <c r="M17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="36" t="s">
+      <c r="Q17" s="39" t="s">
         <v>39</v>
       </c>
       <c r="R17" s="32"/>
@@ -2693,7 +2693,7 @@
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -2711,14 +2711,14 @@
       <c r="L18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="34"/>
+      <c r="Q18" s="31"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -2736,14 +2736,14 @@
       <c r="L19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="34"/>
+      <c r="Q19" s="31"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="32"/>
@@ -2768,7 +2768,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -2786,7 +2786,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -2807,14 +2807,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -2835,14 +2835,14 @@
       <c r="M23" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="34"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -2863,14 +2863,14 @@
       <c r="M24" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="32"/>
@@ -2888,14 +2888,14 @@
       <c r="L25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="34"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -2913,14 +2913,14 @@
       <c r="L26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="31"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="32"/>
@@ -2945,7 +2945,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -2963,7 +2963,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -2981,14 +2981,14 @@
       <c r="L29" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="31"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -3006,14 +3006,14 @@
       <c r="L30" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="31"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -3031,14 +3031,14 @@
       <c r="L31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="34"/>
+      <c r="Q31" s="31"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="41" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="32"/>
@@ -3058,7 +3058,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="32"/>
@@ -3083,7 +3083,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -3101,7 +3101,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -3119,7 +3119,7 @@
       <c r="L35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="Q35" s="48" t="s">
+      <c r="Q35" s="40" t="s">
         <v>72</v>
       </c>
       <c r="R35" s="32"/>
@@ -3128,7 +3128,7 @@
       <c r="U35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -3150,7 +3150,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="36" t="s">
+      <c r="Q36" s="39" t="s">
         <v>75</v>
       </c>
       <c r="R36" s="32"/>
@@ -3160,7 +3160,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -3180,7 +3180,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="34" t="s">
+      <c r="Q37" s="31" t="s">
         <v>77</v>
       </c>
       <c r="R37" s="32"/>
@@ -3190,7 +3190,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -3210,7 +3210,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="34"/>
+      <c r="Q38" s="31"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -3218,7 +3218,7 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="32"/>
@@ -3243,7 +3243,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -3261,7 +3261,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -3282,7 +3282,7 @@
       <c r="M41" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Q41" s="36" t="s">
+      <c r="Q41" s="39" t="s">
         <v>84</v>
       </c>
       <c r="R41" s="32"/>
@@ -3291,7 +3291,7 @@
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -3312,14 +3312,14 @@
       <c r="M42" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="Q42" s="34"/>
+      <c r="Q42" s="31"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -3340,14 +3340,14 @@
       <c r="M43" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="Q43" s="34"/>
+      <c r="Q43" s="31"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="32"/>
@@ -3365,14 +3365,14 @@
       <c r="L44" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Q44" s="34"/>
+      <c r="Q44" s="31"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -3397,7 +3397,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -3415,7 +3415,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="42" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -3431,14 +3431,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="34"/>
+      <c r="Q47" s="31"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="42" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -3454,14 +3454,14 @@
         <v>0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="34"/>
+      <c r="Q48" s="31"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -3482,14 +3482,14 @@
       <c r="M49" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="34"/>
+      <c r="Q49" s="31"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -3507,14 +3507,14 @@
       <c r="L50" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q50" s="34"/>
+      <c r="Q50" s="31"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -3532,14 +3532,14 @@
       <c r="L51" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q51" s="34"/>
+      <c r="Q51" s="31"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="35" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -3557,14 +3557,14 @@
       <c r="L52" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="Q52" s="34"/>
+      <c r="Q52" s="31"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="33" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -3582,14 +3582,14 @@
       <c r="L53" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q53" s="34"/>
+      <c r="Q53" s="31"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -3607,14 +3607,14 @@
       <c r="L54" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q54" s="34"/>
+      <c r="Q54" s="31"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="33" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -3635,14 +3635,14 @@
       <c r="M55" t="s">
         <v>112</v>
       </c>
-      <c r="Q55" s="34"/>
+      <c r="Q55" s="31"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -3660,14 +3660,14 @@
       <c r="L56" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Q56" s="34"/>
+      <c r="Q56" s="31"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="42" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -3676,11 +3676,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="42"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="48"/>
+      <c r="Q58" s="40"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -3692,7 +3692,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="43"/>
+      <c r="H60" s="47"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -3765,6 +3765,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="Q43:U43"/>
     <mergeCell ref="Q23:U23"/>
     <mergeCell ref="Q38:U38"/>
     <mergeCell ref="A49:J49"/>
@@ -3781,86 +3861,6 @@
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="Q47:U47"/>
     <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="Q19:U19"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Très Bien">
@@ -3901,7 +3901,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="32"/>
@@ -3935,11 +3935,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32"/>
@@ -3950,7 +3950,7 @@
       <c r="K3" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -3983,7 +3983,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -4011,7 +4011,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="51" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -4020,7 +4020,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -4035,7 +4035,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -4051,14 +4051,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="34"/>
+      <c r="Q7" s="31"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -4084,14 +4084,14 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="31"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -4107,14 +4107,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="34"/>
+      <c r="Q9" s="31"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -4130,14 +4130,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -4153,14 +4153,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="31"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -4189,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -4215,7 +4215,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="32"/>
@@ -4242,7 +4242,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -4260,7 +4260,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -4279,14 +4279,14 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="34"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -4302,14 +4302,14 @@
         <v>1</v>
       </c>
       <c r="L17" s="18"/>
-      <c r="Q17" s="34"/>
+      <c r="Q17" s="31"/>
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -4325,14 +4325,14 @@
         <v>1</v>
       </c>
       <c r="L18" s="18"/>
-      <c r="Q18" s="34"/>
+      <c r="Q18" s="31"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -4348,14 +4348,14 @@
         <v>1</v>
       </c>
       <c r="L19" s="18"/>
-      <c r="Q19" s="34"/>
+      <c r="Q19" s="31"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="32"/>
@@ -4380,7 +4380,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -4398,7 +4398,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -4417,14 +4417,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -4442,14 +4442,14 @@
       <c r="L23" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q23" s="34"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -4465,14 +4465,14 @@
         <v>0</v>
       </c>
       <c r="L24" s="18"/>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="32"/>
@@ -4490,14 +4490,14 @@
       <c r="L25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="34"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -4515,14 +4515,14 @@
       <c r="L26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="31"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="32"/>
@@ -4547,7 +4547,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -4565,7 +4565,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -4581,14 +4581,14 @@
         <v>1</v>
       </c>
       <c r="L29" s="18"/>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="31"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -4604,14 +4604,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="31"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -4629,14 +4629,14 @@
       <c r="L31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="34"/>
+      <c r="Q31" s="31"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="41" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="32"/>
@@ -4656,7 +4656,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="32"/>
@@ -4681,7 +4681,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -4699,7 +4699,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -4717,19 +4717,19 @@
       <c r="L35" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="33"/>
+      <c r="M35" s="42"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="42"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -4749,7 +4749,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="34"/>
+      <c r="Q36" s="31"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -4757,7 +4757,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -4777,7 +4777,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="34"/>
+      <c r="Q37" s="31"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -4785,7 +4785,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -4805,7 +4805,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="34"/>
+      <c r="Q38" s="31"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -4813,7 +4813,7 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="32"/>
@@ -4838,7 +4838,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -4856,7 +4856,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -4874,14 +4874,14 @@
       <c r="L41" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="Q41" s="34"/>
+      <c r="Q41" s="31"/>
       <c r="R41" s="32"/>
       <c r="S41" s="32"/>
       <c r="T41" s="32"/>
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -4899,14 +4899,14 @@
       <c r="L42" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="Q42" s="34"/>
+      <c r="Q42" s="31"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -4924,14 +4924,14 @@
       <c r="L43" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Q43" s="34"/>
+      <c r="Q43" s="31"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="32"/>
@@ -4949,14 +4949,14 @@
       <c r="L44" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Q44" s="34"/>
+      <c r="Q44" s="31"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -4981,7 +4981,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -4999,7 +4999,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="42" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -5015,14 +5015,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="34"/>
+      <c r="Q47" s="31"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="42" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -5038,14 +5038,14 @@
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="34"/>
+      <c r="Q48" s="31"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -5063,14 +5063,14 @@
       <c r="L49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="Q49" s="34"/>
+      <c r="Q49" s="31"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -5088,14 +5088,14 @@
       <c r="L50" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q50" s="34"/>
+      <c r="Q50" s="31"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -5113,14 +5113,14 @@
       <c r="L51" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q51" s="34"/>
+      <c r="Q51" s="31"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="35" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -5138,14 +5138,14 @@
       <c r="L52" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="Q52" s="34"/>
+      <c r="Q52" s="31"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="33" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -5163,14 +5163,14 @@
       <c r="L53" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q53" s="34"/>
+      <c r="Q53" s="31"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -5188,14 +5188,14 @@
       <c r="L54" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q54" s="34"/>
+      <c r="Q54" s="31"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="33" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -5213,14 +5213,14 @@
       <c r="L55" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q55" s="34"/>
+      <c r="Q55" s="31"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -5238,14 +5238,14 @@
       <c r="L56" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Q56" s="34"/>
+      <c r="Q56" s="31"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="42" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -5254,11 +5254,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="42"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="48"/>
+      <c r="Q58" s="40"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -5270,7 +5270,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="43"/>
+      <c r="H60" s="47"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -5343,29 +5343,64 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q43:U43"/>
     <mergeCell ref="Q18:U18"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A16:J16"/>
@@ -5382,64 +5417,29 @@
     <mergeCell ref="Q29:U29"/>
     <mergeCell ref="Q23:U23"/>
     <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A31:J31"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Très Bien">
@@ -5480,7 +5480,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="32"/>
@@ -5514,11 +5514,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32"/>
@@ -5526,7 +5526,7 @@
       <c r="J3" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -5562,7 +5562,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -5590,7 +5590,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="51" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -5599,7 +5599,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -5614,7 +5614,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -5630,14 +5630,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="34"/>
+      <c r="Q7" s="31"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -5663,7 +5663,7 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="31" t="s">
         <v>163</v>
       </c>
       <c r="R8" s="32"/>
@@ -5672,7 +5672,7 @@
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -5688,14 +5688,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="34"/>
+      <c r="Q9" s="31"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -5711,14 +5711,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -5734,14 +5734,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="31"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -5770,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="36" t="s">
+      <c r="Q12" s="39" t="s">
         <v>164</v>
       </c>
       <c r="R12" s="32"/>
@@ -5798,7 +5798,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="32"/>
@@ -5825,7 +5825,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -5843,7 +5843,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -5873,7 +5873,7 @@
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -5900,7 +5900,7 @@
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -5925,7 +5925,7 @@
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -5943,14 +5943,14 @@
       <c r="L19" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q19" s="34"/>
+      <c r="Q19" s="31"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="32"/>
@@ -5975,7 +5975,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -5993,7 +5993,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -6012,14 +6012,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -6037,14 +6037,14 @@
       <c r="L23" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="Q23" s="34"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -6062,14 +6062,14 @@
       <c r="L24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>135</v>
       </c>
       <c r="B25" s="32"/>
@@ -6087,14 +6087,14 @@
       <c r="L25" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="Q25" s="34"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -6112,14 +6112,14 @@
       <c r="L26" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="31"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="32"/>
@@ -6144,7 +6144,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -6162,7 +6162,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -6178,14 +6178,14 @@
         <v>1</v>
       </c>
       <c r="L29" s="18"/>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="31"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -6201,14 +6201,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="31"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -6226,7 +6226,7 @@
       <c r="L31" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="Q31" s="34"/>
+      <c r="Q31" s="31"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
@@ -6253,7 +6253,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="32"/>
@@ -6278,7 +6278,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -6296,7 +6296,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -6314,19 +6314,19 @@
       <c r="L35" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="M35" s="33"/>
+      <c r="M35" s="42"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="42"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="142" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -6348,7 +6348,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="34"/>
+      <c r="Q36" s="31"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -6356,7 +6356,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -6376,7 +6376,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="34"/>
+      <c r="Q37" s="31"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -6384,7 +6384,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -6404,7 +6404,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="34"/>
+      <c r="Q38" s="31"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -6412,7 +6412,7 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="32"/>
@@ -6437,7 +6437,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -6455,7 +6455,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -6482,7 +6482,7 @@
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -6500,14 +6500,14 @@
       <c r="L42" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="Q42" s="34"/>
+      <c r="Q42" s="31"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -6525,14 +6525,14 @@
       <c r="L43" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="Q43" s="34"/>
+      <c r="Q43" s="31"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="32"/>
@@ -6550,14 +6550,14 @@
       <c r="L44" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="Q44" s="34"/>
+      <c r="Q44" s="31"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -6582,7 +6582,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -6600,7 +6600,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="42" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -6616,14 +6616,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="34"/>
+      <c r="Q47" s="31"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="42" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -6639,14 +6639,14 @@
         <v>0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="34"/>
+      <c r="Q48" s="31"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -6662,14 +6662,14 @@
         <v>1</v>
       </c>
       <c r="L49" s="18"/>
-      <c r="Q49" s="34"/>
+      <c r="Q49" s="31"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -6685,14 +6685,14 @@
         <v>0</v>
       </c>
       <c r="L50" s="18"/>
-      <c r="Q50" s="34"/>
+      <c r="Q50" s="31"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -6708,14 +6708,14 @@
         <v>1</v>
       </c>
       <c r="L51" s="18"/>
-      <c r="Q51" s="34"/>
+      <c r="Q51" s="31"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -6731,14 +6731,14 @@
         <v>0</v>
       </c>
       <c r="L52" s="18"/>
-      <c r="Q52" s="34"/>
+      <c r="Q52" s="31"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="33" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -6754,14 +6754,14 @@
         <v>0</v>
       </c>
       <c r="L53" s="18"/>
-      <c r="Q53" s="34"/>
+      <c r="Q53" s="31"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -6777,14 +6777,14 @@
         <v>0</v>
       </c>
       <c r="L54" s="18"/>
-      <c r="Q54" s="34"/>
+      <c r="Q54" s="31"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="33" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -6800,14 +6800,14 @@
         <v>1</v>
       </c>
       <c r="L55" s="18"/>
-      <c r="Q55" s="34"/>
+      <c r="Q55" s="31"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="33" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -6823,14 +6823,14 @@
         <v>1</v>
       </c>
       <c r="L56" s="18"/>
-      <c r="Q56" s="34"/>
+      <c r="Q56" s="31"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="42" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -6839,11 +6839,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Très Bien</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="42"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="48"/>
+      <c r="Q58" s="40"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -6855,7 +6855,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="43"/>
+      <c r="H60" s="47"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -6928,29 +6928,64 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q43:U43"/>
     <mergeCell ref="Q18:U18"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A16:J16"/>
@@ -6967,64 +7002,29 @@
     <mergeCell ref="Q29:U29"/>
     <mergeCell ref="Q23:U23"/>
     <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A31:J31"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Très Bien">
@@ -7050,8 +7050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7065,7 +7065,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>147</v>
       </c>
       <c r="B1" s="32"/>
@@ -7099,16 +7099,16 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="42" t="s">
         <v>148</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -7141,7 +7141,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -7169,7 +7169,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="51" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -7178,7 +7178,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -7193,7 +7193,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -7209,14 +7209,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="34"/>
+      <c r="Q7" s="31"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -7242,14 +7242,14 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="31"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -7265,14 +7265,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="34"/>
+      <c r="Q9" s="31"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -7288,14 +7288,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -7311,14 +7311,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="31"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -7347,7 +7347,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -7373,7 +7373,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="32"/>
@@ -7400,7 +7400,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -7418,7 +7418,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -7439,14 +7439,14 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="34"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -7464,14 +7464,14 @@
       <c r="L17" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="34"/>
+      <c r="Q17" s="31"/>
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="260" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -7489,14 +7489,14 @@
       <c r="L18" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="34"/>
+      <c r="Q18" s="31"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -7514,14 +7514,14 @@
       <c r="L19" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q19" s="34"/>
+      <c r="Q19" s="31"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="32"/>
@@ -7546,7 +7546,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -7564,7 +7564,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -7585,14 +7585,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="143" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -7610,14 +7610,14 @@
       <c r="L23" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="Q23" s="34"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -7635,14 +7635,14 @@
       <c r="L24" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="78" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="32"/>
@@ -7660,14 +7660,14 @@
       <c r="L25" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="Q25" s="34"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -7683,16 +7683,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="34"/>
+        <v>183</v>
+      </c>
+      <c r="Q26" s="31"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="32"/>
@@ -7717,7 +7717,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -7735,7 +7735,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -7753,14 +7753,14 @@
       <c r="L29" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="31"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -7778,14 +7778,14 @@
       <c r="L30" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="31"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -7803,7 +7803,7 @@
       <c r="L31" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q31" s="34"/>
+      <c r="Q31" s="31"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
@@ -7826,11 +7826,11 @@
         <v>1</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="32"/>
@@ -7855,7 +7855,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -7873,7 +7873,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -7889,21 +7889,21 @@
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="M35" s="33"/>
+        <v>182</v>
+      </c>
+      <c r="M35" s="42"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="42"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="332" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -7925,7 +7925,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="34"/>
+      <c r="Q36" s="31"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -7933,7 +7933,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -7953,7 +7953,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="34"/>
+      <c r="Q37" s="31"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -7961,7 +7961,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -7981,7 +7981,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="34"/>
+      <c r="Q38" s="31"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -7989,7 +7989,7 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="32"/>
@@ -8014,7 +8014,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -8032,7 +8032,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -8048,16 +8048,16 @@
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q41" s="34"/>
+        <v>173</v>
+      </c>
+      <c r="Q41" s="31"/>
       <c r="R41" s="32"/>
       <c r="S41" s="32"/>
       <c r="T41" s="32"/>
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="117" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -8073,16 +8073,16 @@
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q42" s="34"/>
+        <v>174</v>
+      </c>
+      <c r="Q42" s="31"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="39" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -8098,16 +8098,16 @@
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q43" s="34"/>
+        <v>175</v>
+      </c>
+      <c r="Q43" s="31"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="52" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="34" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="32"/>
@@ -8123,16 +8123,16 @@
         <v>1</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q44" s="34"/>
+        <v>176</v>
+      </c>
+      <c r="Q44" s="31"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -8157,7 +8157,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -8175,7 +8175,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="42" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -8191,14 +8191,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="34"/>
+      <c r="Q47" s="31"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="42" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -8214,14 +8214,14 @@
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="34"/>
+      <c r="Q48" s="31"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -8239,14 +8239,14 @@
       <c r="L49" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q49" s="34"/>
+      <c r="Q49" s="31"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -8264,14 +8264,14 @@
       <c r="L50" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="Q50" s="34"/>
+      <c r="Q50" s="31"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -8287,16 +8287,16 @@
         <v>1</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q51" s="34"/>
+        <v>177</v>
+      </c>
+      <c r="Q51" s="31"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -8312,16 +8312,16 @@
         <v>1</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q52" s="34"/>
+        <v>178</v>
+      </c>
+      <c r="Q52" s="31"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="33" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -8339,14 +8339,14 @@
       <c r="L53" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q53" s="34"/>
+      <c r="Q53" s="31"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="65" x14ac:dyDescent="0.2">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -8362,16 +8362,16 @@
         <v>1</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q54" s="34"/>
+        <v>179</v>
+      </c>
+      <c r="Q54" s="31"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="33" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -8387,16 +8387,16 @@
         <v>1</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q55" s="34"/>
+        <v>180</v>
+      </c>
+      <c r="Q55" s="31"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="33" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -8412,16 +8412,16 @@
         <v>1</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q56" s="34"/>
+        <v>181</v>
+      </c>
+      <c r="Q56" s="31"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="42" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -8430,11 +8430,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Très Bien</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="42"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="48"/>
+      <c r="Q58" s="40"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -8446,7 +8446,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="43"/>
+      <c r="H60" s="47"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -8519,29 +8519,64 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q43:U43"/>
     <mergeCell ref="Q18:U18"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A16:J16"/>
@@ -8558,64 +8593,29 @@
     <mergeCell ref="Q29:U29"/>
     <mergeCell ref="Q23:U23"/>
     <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A31:J31"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Très Bien">

--- a/AI_Eval_2023_2024.xlsx
+++ b/AI_Eval_2023_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenyildiz/RiderProjects/Stas.Monitor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenyildiz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62B591D-B2F2-C840-8D3C-E602F2AC1560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211CD29A-0615-C24C-85A1-917F2D25780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -398,21 +397,13 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">nicolas hendrikx:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Indiquez le nombre de tests d'acceptation non-observés. Au-delà de la valeur de O12, l'itération n'est pas recevable.</t>
+          <t>nicolas hendrikx:
+Indiquez le nombre de tests d'acceptation non-observés. Au-delà de la valeur de O12, l'itération n'est pas recevable.</t>
         </r>
       </text>
     </comment>
@@ -421,31 +412,14 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Nicolas Hendrikx:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Mettez une croix si vous respectez le critères
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Mettez la colonne Observé à 1 si vous respectez tous les critères</t>
+          <t>Nicolas Hendrikx:
+Mettez une croix si vous respectez le critères
+Mettez la colonne Observé à 1 si vous respectez tous les critères</t>
         </r>
       </text>
     </comment>
@@ -454,21 +428,13 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">nicolas hendrikx:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adapter les critères pour tenir les DP (Observables, etc.)</t>
+          <t>nicolas hendrikx:
+Adapter les critères pour tenir les DP (Observables, etc.)</t>
         </r>
       </text>
     </comment>
@@ -477,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="190">
   <si>
     <t>Activité intégrative : itération 1</t>
   </si>
@@ -950,6 +916,13 @@
   </si>
   <si>
     <t>E200382</t>
+  </si>
+  <si>
+    <t>Pas d'autoévaluation pour le degré de maitrise</t>
+  </si>
+  <si>
+    <t>AI-Java-2 : TA1
+AI-Java-7 : TA1</t>
   </si>
   <si>
     <t>1 Alerte TooManyParameter dans MeasurementAggregator:27</t>
@@ -1056,183 +1029,22 @@
     <t>Votre nom et Votre prénom</t>
   </si>
   <si>
-    <t>Étudiant</t>
-  </si>
-  <si>
-    <t>Nom et prénom</t>
-  </si>
-  <si>
-    <t>AA1</t>
-  </si>
-  <si>
-    <t>AA2</t>
-  </si>
-  <si>
-    <t>AA3</t>
-  </si>
-  <si>
-    <t>AA4</t>
-  </si>
-  <si>
-    <t>Observations/It</t>
-  </si>
-  <si>
-    <t>Eval 3</t>
-  </si>
-  <si>
-    <t>Eval 4</t>
-  </si>
-  <si>
-    <t>Défense orale</t>
-  </si>
-  <si>
-    <t>Observations/AA</t>
-  </si>
-  <si>
-    <t>Note sans adaptations</t>
-  </si>
-  <si>
-    <t>Adaptations de l'enseignant</t>
-  </si>
-  <si>
-    <t>Note adaptée</t>
-  </si>
-  <si>
-    <t>Pas d'autoévaluation pour le degré de maitrise</t>
-  </si>
-  <si>
-    <t>AI-Java-2 : TA1
-AI-Java-7 : TA1</t>
-  </si>
-  <si>
-    <t>1 alerte TooManyFields dans MainPresenter:11</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">happy path : 
-j'ai mis en bleu un test sur deux pour différencier les tests
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="8"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>ConfigurationTests.Configuration_InitializesThermometersList:7</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DatabaseServiceTests.ShouldGetMeasurements_ReturnsCorrectData:19
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="8"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve">DataItemTests.DataItem_ShouldInitializesPropertiesCorrectly:7
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MeasurementServicesTest.GetRecentMeasurements_CallsDatabaseService:19
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="8"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>ThermometerPresenterTests.UpdateDataItemsTemperature_ShouldInvokeConverterAndUiThreadInvoker:21</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ThermometerPresenterTests.UpdateObservableCollection_ShouldClearAndAddItems:73
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="8"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>TimerManagerTests.Timer_ElapsedEvent_ShouldBeRaised:17</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-MainPresenterTests.Constructor_InitializesPropertiesCorrectly:36
-cas dégradés : 
-DatabaseServiceTests.GetMeasurements_WithNonExistentThermometer_ShouldReturnsEmpty:72
-TemperatureRepositoryTests.GetLastMeasurementTimestamp_WithNonExistentThermometer_ShouldReturnsDateTimeMinValue:86</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">/
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Alertes acceptées : 
+    <t xml:space="preserve">Problème : 
+HE0003 in Stas.Monitor.Presentations.MainPresenter.cs at line 12 until line 1 : MainPresenter has too many fields. Expected 5. Actual 9.
+HE0001 in Stas.Monitor.Domains.Configuration.cs at line 3 until line 5 : Configuration does not define a cohesive set. CKCohesion should be &gt; 1,1. Actual 8.
+HE0001 in Stas.Monitor.Domains.DataItem.cs at line 3 until line 2 : DataItem does not define a cohesive set. CKCohesion should be &gt; 1,1. Actual 8.
+HE0001 in Stas.Monitor.Domains.Humidity.cs at line 3 until line 1 : Humidity does not define a cohesive set. CKCohesion should be &gt; 1,1. Actual 1,75.
+HE0001 in Stas.Monitor.Domains.Measurement.cs at line 3 until line 1 : Measurement does not define a cohesive set. CKCohesion should be &gt; 1,1. Actual 1,75.
+HE0002 in Stas.Monitor.Presentations.MainPresenter.cs at line 12 until line 1 : MainPresenter has too many bodies. Expected 15. Actual 19.
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>Tight Coupling Declaration</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve"> MainPresenter.OnUpdateTimerElapsed:120
+  </si>
+  <si>
+    <t>Alertes acceptées : 
+Tight Coupling Declaration MainPresenter.OnUpdateTimerElapsed:120
 MainPresenter.OnThermometerSelectionChanged:170
 MainPresenter.OnShowTemperatureChanged:185
 MainPresenter.OnShowHumidityChanged:192
@@ -1240,78 +1052,47 @@
 ThermometerPresenter.UpdateDataItemsTemperature:21
 ThermometerPresenter.UpdateDataItemsHumidity:27
 UiThreadInvoker.InvokeOnUIThreadAsync:7
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve">Eviter les couplage de classe excessifs 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve">TemperatureRepository:3
+Eviter les couplage de classe excessifs 
+TemperatureRepository:3
 HumidityRepository:5
 DataManager:4
 ThermometerPresenter:6
 IniConfigurationReader:4
+Erreur non acceptées :
+MainPresenter:11 -&gt; Éviter les couplages de classe excessifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème : 
+HE0009 in Stas.Monitor.Presentations.IThermometerPresenter.cs at line 7 until line 5 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.IThermometerPresenter.cs at line 9 until line 5 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.IUiThreadInvoker.cs at line 5 until line 5 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.MainPresenter.cs at line 120 until line 53 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.MainPresenter.cs at line 170 until line 62 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.MainPresenter.cs at line 185 until line 57 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.MainPresenter.cs at line 192 until line 54 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.ThermometerPresenter.cs at line 22 until line 6 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.ThermometerPresenter.cs at line 28 until line 6 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.TimerWrapper.cs at line 8 until line 5 : Avoid to expose concrete type
+HE0009 in Stas.Monitor.Presentations.UiThreadInvoker.cs at line 7 until line 5 : Avoid to expose concrete type
+CA1506 in Stas.Monitor.Domains.HumidityRepository.cs at line 3 until line 14 : 'HumidityRepository' est coupl avec des types diffrents '10' d'espaces de noms diffrents '5'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
+CA1506 in Stas.Monitor.Domains.TemperatureRepository.cs at line 3 until line 14 : 'TemperatureRepository' est coupl avec des types diffrents '12' d'espaces de noms diffrents '5'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
+CA1506 in Stas.Monitor.Presentations.DataManager.cs at line 6 until line 14 : 'DataManager' est coupl avec des types diffrents '13' d'espaces de noms diffrents '6'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
+CA1506 in Stas.Monitor.Presentations.MainPresenter.cs at line 12 until line 14 : 'MainPresenter' est coupl avec des types diffrents '36' d'espaces de noms diffrents '13'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
+CA1506 in Stas.Monitor.Presentations.ThermometerPresenter.cs at line 7 until line 14 : 'ThermometerPresenter' est coupl avec des types diffrents '11' d'espaces de noms diffrents '6'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
+CA1506 in Stas.Monitor.Infrastructures.IniConfigurationReader.cs at line 6 until line 14 : 'IniConfigurationReader' est coupl avec des types diffrents '12' d'espaces de noms diffrents '7'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>Erreur non acceptées :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>MainPresenter:11 -&gt; Éviter les couplages de classe excessifs</t>
-    </r>
+  </si>
+  <si>
+    <t>DataItemConverter:9 (Select pour transformer IEnumerable&lt;Measurement&gt; en IEnumerable&lt;DataItem&gt;)
+DataItemConverter:21 (Select pour transformer IEnumerable&lt;Humidity&gt; en IEnumerable&lt;DataItem&gt;)
+DataManager:62 (FirstOrDefault pour trouver un ThermometerConfiguration avec le nom donné) 
+FileReader:96 (Where pour filtrer les clé qui commence par 'jal' et ToDictionnary pour créer un dictionnary)</t>
   </si>
   <si>
     <t>domains.Configuration
 domains.Humidity
 domains.Measurement
 domains.DataItem</t>
-  </si>
-  <si>
-    <t>DataItemConverter:9 (Select pour transformer IEnumerable&lt;Measurement&gt; en IEnumerable&lt;DataItem&gt;)
-DataItemConverter:21 (Select pour transformer IEnumerable&lt;Humidity&gt; en IEnumerable&lt;DataItem&gt;)
-DataManager:62 (FirstOrDefault pour trouver un ThermometerConfiguration avec le nom donné) 
-FileReader:96 (Where pour filtrer les clé qui commence par 'jal' et ToDictionnary pour créer un dictionnary)</t>
   </si>
   <si>
     <t>ThermometerPresenter.UpdateObservableCollection&lt;T&gt;:44
@@ -1322,15 +1103,36 @@
 FileReader:94</t>
   </si>
   <si>
+    <t>MainPresenter:178 qui est utilisé dans la méthode MainPresenter.OnPropertyChanged:180</t>
+  </si>
+  <si>
     <t>HumidityRepository:18
 TemperatureRepository:17
 TemperatureRepository:47
 Tout est paramétré correctement</t>
   </si>
   <si>
-    <t>coverage
-- domains : 92% de lignes couvertes
-- presentations : 80% de lignes couvertes</t>
+    <t>Ma bd est configurée dans HumidityRepositoryTests.Setup:11 et dans TemperatureRepository.Setup:10
+c'est une base de donnée de test en mémoire.</t>
+  </si>
+  <si>
+    <t>happy path : 
+j'ai mis en bleu un test sur deux pour différencier les tests
+ConfigurationTests.Configuration_InitializesThermometersList:7
+DatabaseServiceTests.ShouldGetMeasurements_ReturnsCorrectData:19
+DataItemTests.DataItem_ShouldInitializesPropertiesCorrectly:7
+MeasurementServicesTest.GetRecentMeasurements_CallsDatabaseService:19
+ThermometerPresenterTests.UpdateDataItemsTemperature_ShouldInvokeConverterAndUiThreadInvoker:21
+ThermometerPresenterTests.UpdateObservableCollection_ShouldClearAndAddItems:73
+TimerManagerTests.Timer_ElapsedEvent_ShouldBeRaised:17
+MainPresenterTests.Constructor_InitializesPropertiesCorrectly:36
+cas dégradés : 
+DatabaseServiceTests.GetMeasurements_WithNonExistentThermometer_ShouldReturnsEmpty:72
+TemperatureRepositoryTests.GetLastMeasurementTimestamp_WithNonExistentThermometer_ShouldReturnsDateTimeMinValue:86</t>
+  </si>
+  <si>
+    <t>Couverture de la partie domains = 92.10526315789474% 
+couverture de la partie presentations = 80.24193548387096%</t>
   </si>
   <si>
     <t>DatabaseServiceTest.ShouldGetMeasurements_ReturnsCorrectData:19
@@ -1369,18 +1171,73 @@
 MeasurementServices:15</t>
   </si>
   <si>
-    <t>Ma bd est configurée dans HumidityRepositoryTests.Setup:11 et dans TemperatureRepository.Setup:10
-c'est une base de donnée de test en mémoire.</t>
-  </si>
-  <si>
-    <t>MainPresenter:178 qui est utilisé dans la méthode MainPresenter.OnPropertyChanged:180</t>
+    <t>Étudiant</t>
+  </si>
+  <si>
+    <t>Nom et prénom</t>
+  </si>
+  <si>
+    <t>AA1</t>
+  </si>
+  <si>
+    <t>AA2</t>
+  </si>
+  <si>
+    <t>AA3</t>
+  </si>
+  <si>
+    <t>AA4</t>
+  </si>
+  <si>
+    <t>Observations/It</t>
+  </si>
+  <si>
+    <t>Eval 3</t>
+  </si>
+  <si>
+    <t>Eval 4</t>
+  </si>
+  <si>
+    <t>Défense orale</t>
+  </si>
+  <si>
+    <t>Observations/AA</t>
+  </si>
+  <si>
+    <t>Note sans adaptations</t>
+  </si>
+  <si>
+    <t>Adaptations de l'enseignant</t>
+  </si>
+  <si>
+    <t>Note adaptée</t>
+  </si>
+  <si>
+    <t>Le code ne définit aucun type générique</t>
+  </si>
+  <si>
+    <t>Accès à la db dans le domains</t>
+  </si>
+  <si>
+    <t>Absence de commande
+AI-Cs-01 : TA4, TA5
+AI-Cs-03 : TA3</t>
+  </si>
+  <si>
+    <t>1 alerte TooManyFields dans MainPresenter:11
+1 alerte TooManyMethods dans MainPresenter:12</t>
+  </si>
+  <si>
+    <t>coverage
+- domains : 91% de lignes couvertes
+- presentations : 80% de lignes couvertes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,31 +1337,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="9"/>
       <color theme="9"/>
-      <name val="Calibri (Corps)"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="9"/>
-      <color theme="9"/>
-      <name val="Calibri (Corps)"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri (Corps)"/>
     </font>
     <font>
@@ -1513,14 +1349,8 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Corps)"/>
     </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="8"/>
-      <name val="Calibri (Corps)"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1608,6 +1438,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1663,7 +1499,7 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7"/>
@@ -1709,47 +1545,55 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1758,25 +1602,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2270,7 +2113,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="32"/>
@@ -2304,11 +2147,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32"/>
@@ -2316,7 +2159,7 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -2352,7 +2195,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -2380,7 +2223,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -2389,7 +2232,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -2404,7 +2247,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -2420,14 +2263,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -2453,7 +2296,7 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="35" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="32"/>
@@ -2462,7 +2305,7 @@
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -2478,14 +2321,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -2501,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="31" t="s">
+      <c r="Q10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="R10" s="32"/>
@@ -2510,7 +2353,7 @@
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -2526,14 +2369,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -2562,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="39" t="s">
+      <c r="Q12" s="37" t="s">
         <v>29</v>
       </c>
       <c r="R12" s="32"/>
@@ -2590,7 +2433,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="32"/>
@@ -2617,7 +2460,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -2635,7 +2478,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -2656,14 +2499,14 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="31"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -2684,7 +2527,7 @@
       <c r="M17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="Q17" s="37" t="s">
         <v>39</v>
       </c>
       <c r="R17" s="32"/>
@@ -2693,7 +2536,7 @@
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -2711,14 +2554,14 @@
       <c r="L18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="31"/>
+      <c r="Q18" s="35"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -2736,14 +2579,14 @@
       <c r="L19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="31"/>
+      <c r="Q19" s="35"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="32"/>
@@ -2768,7 +2611,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -2786,7 +2629,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -2807,14 +2650,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="31"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -2835,14 +2678,14 @@
       <c r="M23" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="31"/>
+      <c r="Q23" s="35"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -2863,7 +2706,7 @@
       <c r="M24" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="31"/>
+      <c r="Q24" s="35"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
@@ -2888,7 +2731,7 @@
       <c r="L25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="31"/>
+      <c r="Q25" s="35"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
@@ -2913,14 +2756,14 @@
       <c r="L26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q26" s="31"/>
+      <c r="Q26" s="35"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="32"/>
@@ -2945,7 +2788,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -2963,7 +2806,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -2981,14 +2824,14 @@
       <c r="L29" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q29" s="31"/>
+      <c r="Q29" s="35"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -3006,14 +2849,14 @@
       <c r="L30" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="35"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -3031,14 +2874,14 @@
       <c r="L31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="31"/>
+      <c r="Q31" s="35"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="32"/>
@@ -3058,7 +2901,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="32"/>
@@ -3083,7 +2926,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -3101,7 +2944,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -3119,7 +2962,7 @@
       <c r="L35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="Q35" s="40" t="s">
+      <c r="Q35" s="49" t="s">
         <v>72</v>
       </c>
       <c r="R35" s="32"/>
@@ -3128,7 +2971,7 @@
       <c r="U35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -3150,7 +2993,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="39" t="s">
+      <c r="Q36" s="37" t="s">
         <v>75</v>
       </c>
       <c r="R36" s="32"/>
@@ -3160,7 +3003,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -3180,7 +3023,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="31" t="s">
+      <c r="Q37" s="35" t="s">
         <v>77</v>
       </c>
       <c r="R37" s="32"/>
@@ -3190,7 +3033,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -3210,7 +3053,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="31"/>
+      <c r="Q38" s="35"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -3218,7 +3061,7 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="42" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="32"/>
@@ -3243,7 +3086,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -3261,7 +3104,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -3282,7 +3125,7 @@
       <c r="M41" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Q41" s="39" t="s">
+      <c r="Q41" s="37" t="s">
         <v>84</v>
       </c>
       <c r="R41" s="32"/>
@@ -3291,7 +3134,7 @@
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -3312,14 +3155,14 @@
       <c r="M42" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="Q42" s="31"/>
+      <c r="Q42" s="35"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -3340,7 +3183,7 @@
       <c r="M43" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="Q43" s="31"/>
+      <c r="Q43" s="35"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
@@ -3365,14 +3208,14 @@
       <c r="L44" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Q44" s="31"/>
+      <c r="Q44" s="35"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -3397,7 +3240,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="51" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -3415,7 +3258,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="34" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -3431,14 +3274,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="31"/>
+      <c r="Q47" s="35"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="34" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -3454,14 +3297,14 @@
         <v>0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="31"/>
+      <c r="Q48" s="35"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -3482,14 +3325,14 @@
       <c r="M49" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="31"/>
+      <c r="Q49" s="35"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="40" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -3507,14 +3350,14 @@
       <c r="L50" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q50" s="31"/>
+      <c r="Q50" s="35"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="40" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -3532,14 +3375,14 @@
       <c r="L51" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q51" s="31"/>
+      <c r="Q51" s="35"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="46" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -3557,14 +3400,14 @@
       <c r="L52" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="Q52" s="31"/>
+      <c r="Q52" s="35"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -3582,14 +3425,14 @@
       <c r="L53" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q53" s="31"/>
+      <c r="Q53" s="35"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -3607,14 +3450,14 @@
       <c r="L54" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q54" s="31"/>
+      <c r="Q54" s="35"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -3635,14 +3478,14 @@
       <c r="M55" t="s">
         <v>112</v>
       </c>
-      <c r="Q55" s="31"/>
+      <c r="Q55" s="35"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="46" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -3660,14 +3503,14 @@
       <c r="L56" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Q56" s="31"/>
+      <c r="Q56" s="35"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="42" t="s">
+      <c r="H58" s="34" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -3676,11 +3519,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="42"/>
+      <c r="M58" s="34"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="40"/>
+      <c r="Q58" s="49"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -3692,7 +3535,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="47"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -3765,22 +3608,70 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="Q47:U47"/>
     <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A34:K34"/>
     <mergeCell ref="H60:M68"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="Q49:U49"/>
@@ -3797,70 +3688,22 @@
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="Q54:U54"/>
     <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Très Bien">
@@ -3886,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="122" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView zoomScale="122" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3901,7 +3744,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="31" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="32"/>
@@ -3935,11 +3778,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32"/>
@@ -3950,7 +3793,7 @@
       <c r="K3" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -3983,7 +3826,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -4011,7 +3854,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -4020,7 +3863,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -4035,7 +3878,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -4051,14 +3894,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -4084,14 +3927,14 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -4107,14 +3950,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -4130,14 +3973,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="31"/>
+      <c r="Q10" s="35"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -4153,14 +3996,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -4189,7 +4032,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="35"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -4215,7 +4058,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="32"/>
@@ -4242,7 +4085,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -4260,7 +4103,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -4279,14 +4122,14 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="31"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -4302,14 +4145,14 @@
         <v>1</v>
       </c>
       <c r="L17" s="18"/>
-      <c r="Q17" s="31"/>
+      <c r="Q17" s="35"/>
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -4325,14 +4168,14 @@
         <v>1</v>
       </c>
       <c r="L18" s="18"/>
-      <c r="Q18" s="31"/>
+      <c r="Q18" s="35"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -4348,14 +4191,14 @@
         <v>1</v>
       </c>
       <c r="L19" s="18"/>
-      <c r="Q19" s="31"/>
+      <c r="Q19" s="35"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="32"/>
@@ -4380,7 +4223,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -4398,7 +4241,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -4417,14 +4260,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="31"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -4442,14 +4285,14 @@
       <c r="L23" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q23" s="31"/>
+      <c r="Q23" s="35"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -4465,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="18"/>
-      <c r="Q24" s="31"/>
+      <c r="Q24" s="35"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
@@ -4490,7 +4333,7 @@
       <c r="L25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="31"/>
+      <c r="Q25" s="35"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
@@ -4515,14 +4358,14 @@
       <c r="L26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q26" s="31"/>
+      <c r="Q26" s="35"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="32"/>
@@ -4547,7 +4390,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -4565,7 +4408,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -4581,14 +4424,14 @@
         <v>1</v>
       </c>
       <c r="L29" s="18"/>
-      <c r="Q29" s="31"/>
+      <c r="Q29" s="35"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -4604,14 +4447,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="35"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -4629,14 +4472,14 @@
       <c r="L31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="31"/>
+      <c r="Q31" s="35"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="32"/>
@@ -4656,7 +4499,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="32"/>
@@ -4681,7 +4524,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -4699,7 +4542,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -4717,19 +4560,19 @@
       <c r="L35" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="42"/>
+      <c r="M35" s="34"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="42"/>
+      <c r="R35" s="34"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -4749,7 +4592,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="31"/>
+      <c r="Q36" s="35"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -4757,7 +4600,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -4777,7 +4620,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="31"/>
+      <c r="Q37" s="35"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -4785,7 +4628,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -4805,7 +4648,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="31"/>
+      <c r="Q38" s="35"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -4813,7 +4656,7 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="42" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="32"/>
@@ -4838,7 +4681,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -4856,7 +4699,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -4874,14 +4717,14 @@
       <c r="L41" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="Q41" s="31"/>
+      <c r="Q41" s="35"/>
       <c r="R41" s="32"/>
       <c r="S41" s="32"/>
       <c r="T41" s="32"/>
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -4899,14 +4742,14 @@
       <c r="L42" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="Q42" s="31"/>
+      <c r="Q42" s="35"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -4924,7 +4767,7 @@
       <c r="L43" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Q43" s="31"/>
+      <c r="Q43" s="35"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
@@ -4949,14 +4792,14 @@
       <c r="L44" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Q44" s="31"/>
+      <c r="Q44" s="35"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -4981,7 +4824,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="51" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -4999,7 +4842,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="34" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -5015,14 +4858,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="31"/>
+      <c r="Q47" s="35"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="34" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -5038,14 +4881,14 @@
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="31"/>
+      <c r="Q48" s="35"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -5063,14 +4906,14 @@
       <c r="L49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="Q49" s="31"/>
+      <c r="Q49" s="35"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="40" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -5088,14 +4931,14 @@
       <c r="L50" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q50" s="31"/>
+      <c r="Q50" s="35"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="40" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -5113,14 +4956,14 @@
       <c r="L51" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q51" s="31"/>
+      <c r="Q51" s="35"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="46" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -5138,14 +4981,14 @@
       <c r="L52" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="Q52" s="31"/>
+      <c r="Q52" s="35"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -5163,14 +5006,14 @@
       <c r="L53" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q53" s="31"/>
+      <c r="Q53" s="35"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -5188,14 +5031,14 @@
       <c r="L54" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q54" s="31"/>
+      <c r="Q54" s="35"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -5213,14 +5056,14 @@
       <c r="L55" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q55" s="31"/>
+      <c r="Q55" s="35"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="46" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -5238,14 +5081,14 @@
       <c r="L56" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Q56" s="31"/>
+      <c r="Q56" s="35"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="42" t="s">
+      <c r="H58" s="34" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -5254,11 +5097,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="42"/>
+      <c r="M58" s="34"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="40"/>
+      <c r="Q58" s="49"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -5270,7 +5113,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="47"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -5343,22 +5186,73 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A52:J52"/>
     <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A34:K34"/>
     <mergeCell ref="H60:M68"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="Q49:U49"/>
@@ -5373,73 +5267,22 @@
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A35:J35"/>
-    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="R35:V35"/>
     <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Très Bien">
@@ -5465,8 +5308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5480,7 +5323,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="32"/>
@@ -5514,11 +5357,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32"/>
@@ -5526,7 +5369,7 @@
       <c r="J3" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -5562,7 +5405,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -5590,7 +5433,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -5599,7 +5442,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -5614,7 +5457,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -5630,14 +5473,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -5663,8 +5506,8 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="31" t="s">
-        <v>163</v>
+      <c r="Q8" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
@@ -5672,7 +5515,7 @@
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -5688,14 +5531,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -5711,14 +5554,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="31"/>
+      <c r="Q10" s="35"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -5734,14 +5577,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -5770,8 +5613,8 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="39" t="s">
-        <v>164</v>
+      <c r="Q12" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
@@ -5798,7 +5641,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="32"/>
@@ -5825,7 +5668,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -5843,7 +5686,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -5859,13 +5702,13 @@
         <v>1</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="Q16" s="52" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
@@ -5873,7 +5716,7 @@
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -5889,10 +5732,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="52" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
@@ -5900,7 +5743,7 @@
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -5916,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="52"/>
       <c r="R18" s="32"/>
@@ -5925,7 +5768,7 @@
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -5941,16 +5784,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="Q19" s="35"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="32"/>
@@ -5975,7 +5818,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -5993,7 +5836,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -6012,14 +5855,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="31"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -6035,16 +5878,16 @@
         <v>1</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q23" s="31"/>
+        <v>135</v>
+      </c>
+      <c r="Q23" s="35"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -6060,17 +5903,17 @@
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q24" s="31"/>
+        <v>136</v>
+      </c>
+      <c r="Q24" s="35"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>135</v>
+      <c r="A25" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -6085,16 +5928,16 @@
         <v>1</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="31"/>
+        <v>138</v>
+      </c>
+      <c r="Q25" s="35"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -6110,16 +5953,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q26" s="31"/>
+        <v>139</v>
+      </c>
+      <c r="Q26" s="35"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="32"/>
@@ -6144,7 +5987,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -6162,7 +6005,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -6178,14 +6021,14 @@
         <v>1</v>
       </c>
       <c r="L29" s="18"/>
-      <c r="Q29" s="31"/>
+      <c r="Q29" s="35"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -6201,14 +6044,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="35"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="40" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -6224,9 +6067,9 @@
         <v>1</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q31" s="31"/>
+        <v>140</v>
+      </c>
+      <c r="Q31" s="35"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
@@ -6249,11 +6092,11 @@
         <v>1</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="32"/>
@@ -6278,7 +6121,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -6296,7 +6139,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -6312,21 +6155,21 @@
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="M35" s="42"/>
+        <v>142</v>
+      </c>
+      <c r="M35" s="34"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="42"/>
+      <c r="R35" s="34"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="142" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -6342,13 +6185,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="31"/>
+      <c r="Q36" s="35"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -6356,7 +6199,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -6376,7 +6219,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="31"/>
+      <c r="Q37" s="35"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -6384,7 +6227,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -6404,7 +6247,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="31"/>
+      <c r="Q38" s="35"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -6412,7 +6255,7 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="42" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="32"/>
@@ -6437,7 +6280,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -6455,7 +6298,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -6471,10 +6314,10 @@
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q41" s="52" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R41" s="32"/>
       <c r="S41" s="32"/>
@@ -6482,7 +6325,7 @@
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -6498,16 +6341,16 @@
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q42" s="31"/>
+        <v>146</v>
+      </c>
+      <c r="Q42" s="35"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -6523,9 +6366,9 @@
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q43" s="31"/>
+        <v>147</v>
+      </c>
+      <c r="Q43" s="35"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
@@ -6548,16 +6391,16 @@
         <v>1</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q44" s="31"/>
+        <v>148</v>
+      </c>
+      <c r="Q44" s="35"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -6574,7 +6417,7 @@
         <v>94</v>
       </c>
       <c r="N45" s="3">
-        <f>IF(SUM($N$3:$R$3)&gt;3,SUM($K$47:$K56),0)</f>
+        <f>IF(SUM($N$3:$R$3)=5,SUM($K$47:$K56),0)</f>
         <v>5</v>
       </c>
       <c r="O45" s="4">
@@ -6582,7 +6425,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="51" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -6600,7 +6443,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="34" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -6616,14 +6459,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="31"/>
+      <c r="Q47" s="35"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="34" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -6639,14 +6482,14 @@
         <v>0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="31"/>
+      <c r="Q48" s="35"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -6662,14 +6505,14 @@
         <v>1</v>
       </c>
       <c r="L49" s="18"/>
-      <c r="Q49" s="31"/>
+      <c r="Q49" s="35"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="40" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -6685,14 +6528,14 @@
         <v>0</v>
       </c>
       <c r="L50" s="18"/>
-      <c r="Q50" s="31"/>
+      <c r="Q50" s="35"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="40" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -6708,14 +6551,14 @@
         <v>1</v>
       </c>
       <c r="L51" s="18"/>
-      <c r="Q51" s="31"/>
+      <c r="Q51" s="35"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="40" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -6731,14 +6574,14 @@
         <v>0</v>
       </c>
       <c r="L52" s="18"/>
-      <c r="Q52" s="31"/>
+      <c r="Q52" s="35"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -6754,14 +6597,14 @@
         <v>0</v>
       </c>
       <c r="L53" s="18"/>
-      <c r="Q53" s="31"/>
+      <c r="Q53" s="35"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -6777,14 +6620,14 @@
         <v>0</v>
       </c>
       <c r="L54" s="18"/>
-      <c r="Q54" s="31"/>
+      <c r="Q54" s="35"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -6800,14 +6643,14 @@
         <v>1</v>
       </c>
       <c r="L55" s="18"/>
-      <c r="Q55" s="31"/>
+      <c r="Q55" s="35"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="40" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -6823,14 +6666,14 @@
         <v>1</v>
       </c>
       <c r="L56" s="18"/>
-      <c r="Q56" s="31"/>
+      <c r="Q56" s="35"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="42" t="s">
+      <c r="H58" s="34" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -6839,11 +6682,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Très Bien</v>
       </c>
-      <c r="M58" s="42"/>
+      <c r="M58" s="34"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="40"/>
+      <c r="Q58" s="49"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -6855,7 +6698,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="47"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -6928,22 +6771,73 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A52:J52"/>
     <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A34:K34"/>
     <mergeCell ref="H60:M68"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="Q49:U49"/>
@@ -6958,73 +6852,22 @@
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A35:J35"/>
-    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="R35:V35"/>
     <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Très Bien">
@@ -7050,8 +6893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7065,8 +6908,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>147</v>
+      <c r="A1" s="31" t="s">
+        <v>149</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -7099,21 +6942,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="42" t="s">
-        <v>148</v>
+      <c r="C3" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
         <f>IF($O$5=$N$5,TRUNC($N$14/$O$14),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="17">
         <f>IF($O$5=$N$5,TRUNC($N$20/$O$20),0)</f>
@@ -7141,7 +6984,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -7169,7 +7012,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -7178,7 +7021,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -7193,7 +7036,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -7209,14 +7052,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -7237,19 +7080,19 @@
         <v>20</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -7265,14 +7108,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -7288,14 +7131,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="31"/>
+      <c r="Q10" s="35"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -7311,14 +7154,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -7335,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s">
         <v>28</v>
@@ -7347,7 +7190,9 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="37" t="s">
+        <v>187</v>
+      </c>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -7373,7 +7218,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="32"/>
@@ -7393,14 +7238,14 @@
       </c>
       <c r="N14" s="3">
         <f>SUM($K$16:$K$19)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -7418,7 +7263,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -7434,19 +7279,19 @@
         <v>1</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="31"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
     </row>
-    <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:21" ht="404" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -7459,19 +7304,21 @@
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-    </row>
-    <row r="18" spans="1:21" ht="260" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+    </row>
+    <row r="18" spans="1:21" ht="260" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -7487,16 +7334,18 @@
         <v>1</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q18" s="31"/>
+        <v>153</v>
+      </c>
+      <c r="Q18" s="52" t="s">
+        <v>154</v>
+      </c>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -7509,19 +7358,21 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
+        <v>134</v>
+      </c>
+      <c r="Q19" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="32"/>
@@ -7546,7 +7397,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -7564,7 +7415,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -7580,19 +7431,19 @@
         <v>1</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="31"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
-    <row r="23" spans="1:21" ht="143" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:21" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -7608,16 +7459,16 @@
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q23" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="Q23" s="35"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -7633,16 +7484,16 @@
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="Q24" s="35"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
-    <row r="25" spans="1:21" ht="78" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="32"/>
@@ -7658,16 +7509,16 @@
         <v>1</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q25" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="Q25" s="35"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -7683,16 +7534,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="Q26" s="35"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="32"/>
@@ -7717,7 +7568,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -7735,7 +7586,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -7751,16 +7602,16 @@
         <v>1</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q29" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="Q29" s="52"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -7776,16 +7627,16 @@
         <v>1</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q30" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="Q30" s="52"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="40" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -7801,9 +7652,9 @@
         <v>1</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q31" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="Q31" s="35"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
@@ -7826,11 +7677,11 @@
         <v>1</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="32"/>
@@ -7855,7 +7706,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -7873,7 +7724,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -7889,21 +7740,21 @@
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="M35" s="42"/>
+        <v>160</v>
+      </c>
+      <c r="M35" s="34"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="42"/>
+      <c r="R35" s="34"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
     </row>
-    <row r="36" spans="1:22" ht="332" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:22" ht="332" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -7919,13 +7770,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="31"/>
+      <c r="Q36" s="35"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -7933,7 +7784,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -7953,7 +7804,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="31"/>
+      <c r="Q37" s="35"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -7961,7 +7812,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -7981,7 +7832,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="31"/>
+      <c r="Q38" s="35"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -7989,7 +7840,7 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="42" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="32"/>
@@ -8014,7 +7865,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -8032,7 +7883,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -8048,16 +7899,18 @@
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-    </row>
-    <row r="42" spans="1:22" ht="117" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q41" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+    </row>
+    <row r="42" spans="1:22" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -8073,16 +7926,16 @@
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q42" s="31"/>
+        <v>163</v>
+      </c>
+      <c r="Q42" s="35"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:22" ht="39" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+    <row r="43" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -8098,16 +7951,16 @@
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q43" s="31"/>
+        <v>164</v>
+      </c>
+      <c r="Q43" s="35"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:22" ht="52" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+    <row r="44" spans="1:22" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="32"/>
@@ -8123,16 +7976,16 @@
         <v>1</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q44" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="Q44" s="35"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -8149,15 +8002,15 @@
         <v>94</v>
       </c>
       <c r="N45" s="3">
-        <f>IF(SUM($N$3:$R$3)&gt;3,SUM($K$47:$K56),0)</f>
-        <v>10</v>
+        <f>IF(SUM($N$3:$R$3)=5,SUM($K$47:$K56),0)</f>
+        <v>0</v>
       </c>
       <c r="O45" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="51" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -8175,7 +8028,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="34" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -8188,17 +8041,17 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="31"/>
+      <c r="Q47" s="35"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="34" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -8211,17 +8064,17 @@
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="31"/>
+      <c r="Q48" s="35"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -8234,19 +8087,19 @@
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q49" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="Q49" s="35"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="40" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -8259,19 +8112,19 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q50" s="31"/>
+        <v>151</v>
+      </c>
+      <c r="Q50" s="35"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="40" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -8287,16 +8140,16 @@
         <v>1</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q51" s="31"/>
+        <v>166</v>
+      </c>
+      <c r="Q51" s="35"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="40" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -8309,19 +8162,21 @@
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q52" s="31"/>
+        <v>167</v>
+      </c>
+      <c r="Q52" s="35" t="s">
+        <v>185</v>
+      </c>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -8337,16 +8192,16 @@
         <v>1</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q53" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="Q53" s="35"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
-    <row r="54" spans="1:21" ht="65" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
+    <row r="54" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -8362,16 +8217,16 @@
         <v>1</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q54" s="31"/>
+        <v>168</v>
+      </c>
+      <c r="Q54" s="35"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -8387,16 +8242,16 @@
         <v>1</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q55" s="31"/>
+        <v>169</v>
+      </c>
+      <c r="Q55" s="35"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="40" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -8412,29 +8267,29 @@
         <v>1</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q56" s="31"/>
+        <v>170</v>
+      </c>
+      <c r="Q56" s="35"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="42" t="s">
+      <c r="H58" s="34" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
       <c r="K58" t="str">
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
-        <v>Très Bien</v>
-      </c>
-      <c r="M58" s="42"/>
+        <v>Insuffisant</v>
+      </c>
+      <c r="M58" s="34"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="40"/>
+      <c r="Q58" s="49"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -8446,7 +8301,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="47"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -8519,22 +8374,73 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A52:J52"/>
     <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A34:K34"/>
     <mergeCell ref="H60:M68"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="Q49:U49"/>
@@ -8549,73 +8455,22 @@
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A35:J35"/>
-    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="R35:V35"/>
     <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Très Bien">
@@ -8642,7 +8497,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8654,35 +8509,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B4" s="27">
         <f>'Eval 3'!N3</f>
@@ -8710,7 +8565,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
@@ -8736,7 +8591,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B6" s="26">
         <v>0</v>
@@ -8760,7 +8615,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B7" s="23">
         <f>SUM(B$4:B$6)</f>
@@ -8789,16 +8644,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="G9" s="25">
-        <f>IF(G7&lt;10,G7,10+SUM('Eval 1'!K47:K56,'Eval 2'!K47:K56,'Eval 3'!K47:K56,'Eval 4'!K47:K56)/4)</f>
-        <v>17.25</v>
+        <f>IF(G7&lt;10,G7,10+SUM('Eval 3'!K47:K56,'Eval 4'!K47:K56)/2)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="G10" s="26">
         <v>0</v>
@@ -8806,11 +8661,11 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="G11" s="24">
         <f>G9+G10</f>
-        <v>17.25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/AI_Eval_2023_2024.xlsx
+++ b/AI_Eval_2023_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenyildiz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenyildiz/RiderProjects/Stas.Monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211CD29A-0615-C24C-85A1-917F2D25780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBD553-9317-4347-987A-91B10752600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="186">
   <si>
     <t>Activité intégrative : itération 1</t>
   </si>
@@ -1030,16 +1030,6 @@
   </si>
   <si>
     <t xml:space="preserve">/
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problème : 
-HE0003 in Stas.Monitor.Presentations.MainPresenter.cs at line 12 until line 1 : MainPresenter has too many fields. Expected 5. Actual 9.
-HE0001 in Stas.Monitor.Domains.Configuration.cs at line 3 until line 5 : Configuration does not define a cohesive set. CKCohesion should be &gt; 1,1. Actual 8.
-HE0001 in Stas.Monitor.Domains.DataItem.cs at line 3 until line 2 : DataItem does not define a cohesive set. CKCohesion should be &gt; 1,1. Actual 8.
-HE0001 in Stas.Monitor.Domains.Humidity.cs at line 3 until line 1 : Humidity does not define a cohesive set. CKCohesion should be &gt; 1,1. Actual 1,75.
-HE0001 in Stas.Monitor.Domains.Measurement.cs at line 3 until line 1 : Measurement does not define a cohesive set. CKCohesion should be &gt; 1,1. Actual 1,75.
-HE0002 in Stas.Monitor.Presentations.MainPresenter.cs at line 12 until line 1 : MainPresenter has too many bodies. Expected 15. Actual 19.
 </t>
   </si>
   <si>
@@ -1062,27 +1052,6 @@
 MainPresenter:11 -&gt; Éviter les couplages de classe excessifs</t>
   </si>
   <si>
-    <t xml:space="preserve">Problème : 
-HE0009 in Stas.Monitor.Presentations.IThermometerPresenter.cs at line 7 until line 5 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.IThermometerPresenter.cs at line 9 until line 5 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.IUiThreadInvoker.cs at line 5 until line 5 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.MainPresenter.cs at line 120 until line 53 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.MainPresenter.cs at line 170 until line 62 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.MainPresenter.cs at line 185 until line 57 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.MainPresenter.cs at line 192 until line 54 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.ThermometerPresenter.cs at line 22 until line 6 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.ThermometerPresenter.cs at line 28 until line 6 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.TimerWrapper.cs at line 8 until line 5 : Avoid to expose concrete type
-HE0009 in Stas.Monitor.Presentations.UiThreadInvoker.cs at line 7 until line 5 : Avoid to expose concrete type
-CA1506 in Stas.Monitor.Domains.HumidityRepository.cs at line 3 until line 14 : 'HumidityRepository' est coupl avec des types diffrents '10' d'espaces de noms diffrents '5'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
-CA1506 in Stas.Monitor.Domains.TemperatureRepository.cs at line 3 until line 14 : 'TemperatureRepository' est coupl avec des types diffrents '12' d'espaces de noms diffrents '5'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
-CA1506 in Stas.Monitor.Presentations.DataManager.cs at line 6 until line 14 : 'DataManager' est coupl avec des types diffrents '13' d'espaces de noms diffrents '6'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
-CA1506 in Stas.Monitor.Presentations.MainPresenter.cs at line 12 until line 14 : 'MainPresenter' est coupl avec des types diffrents '36' d'espaces de noms diffrents '13'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
-CA1506 in Stas.Monitor.Presentations.ThermometerPresenter.cs at line 7 until line 14 : 'ThermometerPresenter' est coupl avec des types diffrents '11' d'espaces de noms diffrents '6'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
-CA1506 in Stas.Monitor.Infrastructures.IniConfigurationReader.cs at line 6 until line 14 : 'IniConfigurationReader' est coupl avec des types diffrents '12' d'espaces de noms diffrents '7'. Rcrivez ou refactorisez le code pour baisser son couplage de classe en dessous de '10'.
-</t>
-  </si>
-  <si>
     <t>DataItemConverter:9 (Select pour transformer IEnumerable&lt;Measurement&gt; en IEnumerable&lt;DataItem&gt;)
 DataItemConverter:21 (Select pour transformer IEnumerable&lt;Humidity&gt; en IEnumerable&lt;DataItem&gt;)
 DataManager:62 (FirstOrDefault pour trouver un ThermometerConfiguration avec le nom donné) 
@@ -1131,10 +1100,6 @@
 TemperatureRepositoryTests.GetLastMeasurementTimestamp_WithNonExistentThermometer_ShouldReturnsDateTimeMinValue:86</t>
   </si>
   <si>
-    <t>Couverture de la partie domains = 92.10526315789474% 
-couverture de la partie presentations = 80.24193548387096%</t>
-  </si>
-  <si>
     <t>DatabaseServiceTest.ShouldGetMeasurements_ReturnsCorrectData:19
 DbConnectionFactoryTest.ShouldCreateConnection_ReturnsMySqlConnection:9
 DataItemTests.DataItem_ShouldInitializesPropertiesCorrectly:7
@@ -1214,9 +1179,6 @@
   </si>
   <si>
     <t>Le code ne définit aucun type générique</t>
-  </si>
-  <si>
-    <t>Accès à la db dans le domains</t>
   </si>
   <si>
     <t>Absence de commande
@@ -1350,7 +1312,7 @@
       <name val="Calibri (Corps)"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1435,12 +1397,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,49 +1507,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1602,23 +1547,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2113,7 +2069,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="32"/>
@@ -2147,11 +2103,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32"/>
@@ -2159,7 +2115,7 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -2195,7 +2151,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -2223,7 +2179,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="51" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -2232,7 +2188,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -2247,7 +2203,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -2263,14 +2219,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -2296,7 +2252,7 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="33" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="32"/>
@@ -2305,7 +2261,7 @@
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -2321,14 +2277,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="33"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -2344,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="35" t="s">
+      <c r="Q10" s="33" t="s">
         <v>24</v>
       </c>
       <c r="R10" s="32"/>
@@ -2353,7 +2309,7 @@
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -2369,14 +2325,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="33"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -2405,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="38" t="s">
         <v>29</v>
       </c>
       <c r="R12" s="32"/>
@@ -2460,7 +2416,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -2478,7 +2434,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -2499,14 +2455,14 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="35"/>
+      <c r="Q16" s="33"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -2527,7 +2483,7 @@
       <c r="M17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="38" t="s">
         <v>39</v>
       </c>
       <c r="R17" s="32"/>
@@ -2536,7 +2492,7 @@
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -2554,14 +2510,14 @@
       <c r="L18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="35"/>
+      <c r="Q18" s="33"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -2579,7 +2535,7 @@
       <c r="L19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="35"/>
+      <c r="Q19" s="33"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
@@ -2611,7 +2567,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -2629,7 +2585,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -2650,14 +2606,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="35"/>
+      <c r="Q22" s="33"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -2678,14 +2634,14 @@
       <c r="M23" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="35"/>
+      <c r="Q23" s="33"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -2706,14 +2662,14 @@
       <c r="M24" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="35"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="32"/>
@@ -2731,14 +2687,14 @@
       <c r="L25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="35"/>
+      <c r="Q25" s="33"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -2756,7 +2712,7 @@
       <c r="L26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q26" s="35"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
@@ -2788,7 +2744,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -2806,7 +2762,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -2824,14 +2780,14 @@
       <c r="L29" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q29" s="35"/>
+      <c r="Q29" s="33"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -2849,14 +2805,14 @@
       <c r="L30" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="35"/>
+      <c r="Q30" s="33"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -2874,14 +2830,14 @@
       <c r="L31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="35"/>
+      <c r="Q31" s="33"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="43" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="32"/>
@@ -2926,7 +2882,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -2944,7 +2900,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -2962,7 +2918,7 @@
       <c r="L35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="Q35" s="49" t="s">
+      <c r="Q35" s="39" t="s">
         <v>72</v>
       </c>
       <c r="R35" s="32"/>
@@ -2971,7 +2927,7 @@
       <c r="U35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -2993,7 +2949,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="37" t="s">
+      <c r="Q36" s="38" t="s">
         <v>75</v>
       </c>
       <c r="R36" s="32"/>
@@ -3003,7 +2959,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -3023,7 +2979,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="35" t="s">
+      <c r="Q37" s="33" t="s">
         <v>77</v>
       </c>
       <c r="R37" s="32"/>
@@ -3033,7 +2989,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -3053,7 +3009,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="35"/>
+      <c r="Q38" s="33"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -3086,7 +3042,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -3104,7 +3060,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -3125,7 +3081,7 @@
       <c r="M41" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Q41" s="37" t="s">
+      <c r="Q41" s="38" t="s">
         <v>84</v>
       </c>
       <c r="R41" s="32"/>
@@ -3134,7 +3090,7 @@
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -3155,14 +3111,14 @@
       <c r="M42" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="Q42" s="35"/>
+      <c r="Q42" s="33"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -3183,14 +3139,14 @@
       <c r="M43" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="Q43" s="35"/>
+      <c r="Q43" s="33"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="32"/>
@@ -3208,14 +3164,14 @@
       <c r="L44" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Q44" s="35"/>
+      <c r="Q44" s="33"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="48" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -3240,7 +3196,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="40" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -3258,7 +3214,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="41" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -3274,14 +3230,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="35"/>
+      <c r="Q47" s="33"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -3297,14 +3253,14 @@
         <v>0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="35"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -3325,14 +3281,14 @@
       <c r="M49" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="35"/>
+      <c r="Q49" s="33"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -3350,14 +3306,14 @@
       <c r="L50" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q50" s="35"/>
+      <c r="Q50" s="33"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -3375,14 +3331,14 @@
       <c r="L51" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q51" s="35"/>
+      <c r="Q51" s="33"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="35" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -3400,14 +3356,14 @@
       <c r="L52" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="Q52" s="35"/>
+      <c r="Q52" s="33"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -3425,14 +3381,14 @@
       <c r="L53" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q53" s="35"/>
+      <c r="Q53" s="33"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="36" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -3450,14 +3406,14 @@
       <c r="L54" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q54" s="35"/>
+      <c r="Q54" s="33"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -3478,14 +3434,14 @@
       <c r="M55" t="s">
         <v>112</v>
       </c>
-      <c r="Q55" s="35"/>
+      <c r="Q55" s="33"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -3503,14 +3459,14 @@
       <c r="L56" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Q56" s="35"/>
+      <c r="Q56" s="33"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="41" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -3519,11 +3475,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="34"/>
+      <c r="M58" s="41"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="49"/>
+      <c r="Q58" s="39"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -3535,7 +3491,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="44"/>
+      <c r="H60" s="46"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -3608,6 +3564,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="Q37:U37"/>
     <mergeCell ref="A43:J43"/>
@@ -3624,86 +3660,6 @@
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="Q19:U19"/>
     <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Très Bien">
@@ -3744,7 +3700,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="32"/>
@@ -3778,11 +3734,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32"/>
@@ -3793,7 +3749,7 @@
       <c r="K3" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -3826,7 +3782,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -3854,7 +3810,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="51" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -3863,7 +3819,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -3878,7 +3834,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -3894,14 +3850,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -3927,14 +3883,14 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="35"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -3950,14 +3906,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="33"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -3973,14 +3929,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="35"/>
+      <c r="Q10" s="33"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -3996,14 +3952,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="33"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -4032,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="35"/>
+      <c r="Q12" s="33"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -4085,7 +4041,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -4103,7 +4059,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -4122,14 +4078,14 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="35"/>
+      <c r="Q16" s="33"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -4145,14 +4101,14 @@
         <v>1</v>
       </c>
       <c r="L17" s="18"/>
-      <c r="Q17" s="35"/>
+      <c r="Q17" s="33"/>
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -4168,14 +4124,14 @@
         <v>1</v>
       </c>
       <c r="L18" s="18"/>
-      <c r="Q18" s="35"/>
+      <c r="Q18" s="33"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -4191,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="18"/>
-      <c r="Q19" s="35"/>
+      <c r="Q19" s="33"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
@@ -4223,7 +4179,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -4241,7 +4197,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -4260,14 +4216,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="35"/>
+      <c r="Q22" s="33"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -4285,14 +4241,14 @@
       <c r="L23" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q23" s="35"/>
+      <c r="Q23" s="33"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -4308,14 +4264,14 @@
         <v>0</v>
       </c>
       <c r="L24" s="18"/>
-      <c r="Q24" s="35"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="32"/>
@@ -4333,14 +4289,14 @@
       <c r="L25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="35"/>
+      <c r="Q25" s="33"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -4358,7 +4314,7 @@
       <c r="L26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q26" s="35"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
@@ -4390,7 +4346,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -4408,7 +4364,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -4424,14 +4380,14 @@
         <v>1</v>
       </c>
       <c r="L29" s="18"/>
-      <c r="Q29" s="35"/>
+      <c r="Q29" s="33"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -4447,14 +4403,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="Q30" s="35"/>
+      <c r="Q30" s="33"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -4472,14 +4428,14 @@
       <c r="L31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="35"/>
+      <c r="Q31" s="33"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="43" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="32"/>
@@ -4524,7 +4480,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -4542,7 +4498,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -4560,19 +4516,19 @@
       <c r="L35" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="34"/>
+      <c r="M35" s="41"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="34"/>
+      <c r="R35" s="41"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -4592,7 +4548,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="35"/>
+      <c r="Q36" s="33"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -4600,7 +4556,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -4620,7 +4576,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="35"/>
+      <c r="Q37" s="33"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -4628,7 +4584,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -4648,7 +4604,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="35"/>
+      <c r="Q38" s="33"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -4681,7 +4637,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -4699,7 +4655,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -4717,14 +4673,14 @@
       <c r="L41" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="Q41" s="35"/>
+      <c r="Q41" s="33"/>
       <c r="R41" s="32"/>
       <c r="S41" s="32"/>
       <c r="T41" s="32"/>
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -4742,14 +4698,14 @@
       <c r="L42" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="Q42" s="35"/>
+      <c r="Q42" s="33"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -4767,14 +4723,14 @@
       <c r="L43" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Q43" s="35"/>
+      <c r="Q43" s="33"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="32"/>
@@ -4792,14 +4748,14 @@
       <c r="L44" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Q44" s="35"/>
+      <c r="Q44" s="33"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="48" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -4824,7 +4780,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="40" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -4842,7 +4798,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="41" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -4858,14 +4814,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="35"/>
+      <c r="Q47" s="33"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -4881,14 +4837,14 @@
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="35"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -4906,14 +4862,14 @@
       <c r="L49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="Q49" s="35"/>
+      <c r="Q49" s="33"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -4931,14 +4887,14 @@
       <c r="L50" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q50" s="35"/>
+      <c r="Q50" s="33"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -4956,14 +4912,14 @@
       <c r="L51" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q51" s="35"/>
+      <c r="Q51" s="33"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="35" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -4981,14 +4937,14 @@
       <c r="L52" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="Q52" s="35"/>
+      <c r="Q52" s="33"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -5006,14 +4962,14 @@
       <c r="L53" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q53" s="35"/>
+      <c r="Q53" s="33"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="36" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -5031,14 +4987,14 @@
       <c r="L54" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q54" s="35"/>
+      <c r="Q54" s="33"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -5056,14 +5012,14 @@
       <c r="L55" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q55" s="35"/>
+      <c r="Q55" s="33"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -5081,14 +5037,14 @@
       <c r="L56" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Q56" s="35"/>
+      <c r="Q56" s="33"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="41" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -5097,11 +5053,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="34"/>
+      <c r="M58" s="41"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="49"/>
+      <c r="Q58" s="39"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -5113,7 +5069,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="44"/>
+      <c r="H60" s="46"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -5186,6 +5142,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="Q52:U52"/>
@@ -5202,87 +5239,6 @@
     <mergeCell ref="Q43:U43"/>
     <mergeCell ref="Q42:U42"/>
     <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Très Bien">
@@ -5323,7 +5279,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="47" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="32"/>
@@ -5357,11 +5313,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32"/>
@@ -5369,7 +5325,7 @@
       <c r="J3" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -5405,7 +5361,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -5433,7 +5389,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="51" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -5442,7 +5398,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -5457,7 +5413,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -5473,14 +5429,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -5506,7 +5462,7 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="33" t="s">
         <v>128</v>
       </c>
       <c r="R8" s="32"/>
@@ -5515,7 +5471,7 @@
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -5531,14 +5487,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="33"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -5554,14 +5510,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="35"/>
+      <c r="Q10" s="33"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -5577,14 +5533,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="33"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -5613,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="38" t="s">
         <v>129</v>
       </c>
       <c r="R12" s="32"/>
@@ -5668,7 +5624,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -5686,7 +5642,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -5716,7 +5672,7 @@
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -5743,7 +5699,7 @@
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -5768,7 +5724,7 @@
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -5786,7 +5742,7 @@
       <c r="L19" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="35"/>
+      <c r="Q19" s="33"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
@@ -5818,7 +5774,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -5836,7 +5792,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -5855,14 +5811,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="35"/>
+      <c r="Q22" s="33"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -5880,14 +5836,14 @@
       <c r="L23" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="Q23" s="35"/>
+      <c r="Q23" s="33"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -5905,14 +5861,14 @@
       <c r="L24" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="Q24" s="35"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>137</v>
       </c>
       <c r="B25" s="32"/>
@@ -5930,14 +5886,14 @@
       <c r="L25" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="Q25" s="35"/>
+      <c r="Q25" s="33"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -5955,7 +5911,7 @@
       <c r="L26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="Q26" s="35"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
@@ -5987,7 +5943,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -6005,7 +5961,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -6021,14 +5977,14 @@
         <v>1</v>
       </c>
       <c r="L29" s="18"/>
-      <c r="Q29" s="35"/>
+      <c r="Q29" s="33"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -6044,14 +6000,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="Q30" s="35"/>
+      <c r="Q30" s="33"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -6069,7 +6025,7 @@
       <c r="L31" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="Q31" s="35"/>
+      <c r="Q31" s="33"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
@@ -6121,7 +6077,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -6139,7 +6095,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -6157,19 +6113,19 @@
       <c r="L35" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="M35" s="34"/>
+      <c r="M35" s="41"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="34"/>
+      <c r="R35" s="41"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="142" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -6191,7 +6147,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="35"/>
+      <c r="Q36" s="33"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -6199,7 +6155,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -6219,7 +6175,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="35"/>
+      <c r="Q37" s="33"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -6227,7 +6183,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -6247,7 +6203,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="35"/>
+      <c r="Q38" s="33"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -6280,7 +6236,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -6298,7 +6254,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -6325,7 +6281,7 @@
       <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -6343,14 +6299,14 @@
       <c r="L42" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="Q42" s="35"/>
+      <c r="Q42" s="33"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -6368,14 +6324,14 @@
       <c r="L43" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="Q43" s="35"/>
+      <c r="Q43" s="33"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="32"/>
@@ -6393,14 +6349,14 @@
       <c r="L44" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="Q44" s="35"/>
+      <c r="Q44" s="33"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="48" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -6425,7 +6381,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="40" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -6443,7 +6399,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="41" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -6459,14 +6415,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="35"/>
+      <c r="Q47" s="33"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -6482,14 +6438,14 @@
         <v>0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="35"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -6505,14 +6461,14 @@
         <v>1</v>
       </c>
       <c r="L49" s="18"/>
-      <c r="Q49" s="35"/>
+      <c r="Q49" s="33"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -6528,14 +6484,14 @@
         <v>0</v>
       </c>
       <c r="L50" s="18"/>
-      <c r="Q50" s="35"/>
+      <c r="Q50" s="33"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -6551,14 +6507,14 @@
         <v>1</v>
       </c>
       <c r="L51" s="18"/>
-      <c r="Q51" s="35"/>
+      <c r="Q51" s="33"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="36" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -6574,14 +6530,14 @@
         <v>0</v>
       </c>
       <c r="L52" s="18"/>
-      <c r="Q52" s="35"/>
+      <c r="Q52" s="33"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -6597,14 +6553,14 @@
         <v>0</v>
       </c>
       <c r="L53" s="18"/>
-      <c r="Q53" s="35"/>
+      <c r="Q53" s="33"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="36" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -6620,14 +6576,14 @@
         <v>0</v>
       </c>
       <c r="L54" s="18"/>
-      <c r="Q54" s="35"/>
+      <c r="Q54" s="33"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -6643,14 +6599,14 @@
         <v>1</v>
       </c>
       <c r="L55" s="18"/>
-      <c r="Q55" s="35"/>
+      <c r="Q55" s="33"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="36" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -6666,14 +6622,14 @@
         <v>1</v>
       </c>
       <c r="L56" s="18"/>
-      <c r="Q56" s="35"/>
+      <c r="Q56" s="33"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="41" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -6682,11 +6638,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Très Bien</v>
       </c>
-      <c r="M58" s="34"/>
+      <c r="M58" s="41"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="49"/>
+      <c r="Q58" s="39"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -6698,7 +6654,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="44"/>
+      <c r="H60" s="46"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -6771,6 +6727,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="Q52:U52"/>
@@ -6787,87 +6824,6 @@
     <mergeCell ref="Q43:U43"/>
     <mergeCell ref="Q42:U42"/>
     <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Très Bien">
@@ -6893,8 +6849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6908,7 +6864,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="47" t="s">
         <v>149</v>
       </c>
       <c r="B1" s="32"/>
@@ -6942,16 +6898,16 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="17">
@@ -6984,7 +6940,7 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32"/>
@@ -7012,7 +6968,7 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="51" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="32"/>
@@ -7021,7 +6977,7 @@
       <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="32"/>
@@ -7036,7 +6992,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="32"/>
@@ -7052,14 +7008,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="32"/>
@@ -7085,14 +7041,14 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="35"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -7108,14 +7064,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="33"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="32"/>
@@ -7131,14 +7087,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="35"/>
+      <c r="Q10" s="33"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="32"/>
@@ -7154,14 +7110,14 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="33"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="32"/>
@@ -7190,8 +7146,8 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="37" t="s">
-        <v>187</v>
+      <c r="Q12" s="38" t="s">
+        <v>183</v>
       </c>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
@@ -7245,7 +7201,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="32"/>
@@ -7263,7 +7219,7 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="32"/>
@@ -7291,7 +7247,7 @@
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="404" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="32"/>
@@ -7307,18 +7263,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q17" s="54" t="s">
-        <v>152</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Q17" s="54"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
     </row>
     <row r="18" spans="1:21" ht="260" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="32"/>
@@ -7334,18 +7288,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q18" s="52" t="s">
-        <v>154</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="Q18" s="52"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32"/>
@@ -7363,9 +7315,7 @@
       <c r="L19" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="56" t="s">
-        <v>186</v>
-      </c>
+      <c r="Q19" s="56"/>
       <c r="R19" s="55"/>
       <c r="S19" s="55"/>
       <c r="T19" s="55"/>
@@ -7397,7 +7347,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="32"/>
@@ -7415,7 +7365,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="32"/>
@@ -7443,7 +7393,7 @@
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="32"/>
@@ -7459,16 +7409,16 @@
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q23" s="35"/>
+        <v>153</v>
+      </c>
+      <c r="Q23" s="33"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="32"/>
@@ -7484,16 +7434,16 @@
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="35"/>
+        <v>154</v>
+      </c>
+      <c r="Q24" s="33"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="32"/>
@@ -7509,16 +7459,16 @@
         <v>1</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q25" s="35"/>
+        <v>155</v>
+      </c>
+      <c r="Q25" s="33"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="32"/>
@@ -7534,9 +7484,9 @@
         <v>1</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="Q26" s="33"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
@@ -7568,7 +7518,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
@@ -7586,7 +7536,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="32"/>
@@ -7611,7 +7561,7 @@
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="32"/>
@@ -7636,7 +7586,7 @@
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="32"/>
@@ -7654,7 +7604,7 @@
       <c r="L31" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="Q31" s="35"/>
+      <c r="Q31" s="33"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
@@ -7677,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
@@ -7706,7 +7656,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="32"/>
@@ -7724,7 +7674,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="32"/>
@@ -7740,21 +7690,21 @@
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="M35" s="34"/>
+        <v>158</v>
+      </c>
+      <c r="M35" s="41"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="34"/>
+      <c r="R35" s="41"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="332" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="32"/>
@@ -7770,13 +7720,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="35"/>
+      <c r="Q36" s="33"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -7784,7 +7734,7 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="32"/>
@@ -7804,7 +7754,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="35"/>
+      <c r="Q37" s="33"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -7812,7 +7762,7 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="32"/>
@@ -7832,7 +7782,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="35"/>
+      <c r="Q38" s="33"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -7865,7 +7815,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="32"/>
@@ -7883,7 +7833,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="32"/>
@@ -7899,18 +7849,16 @@
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q41" s="54" t="s">
-        <v>162</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Q41" s="54"/>
       <c r="R41" s="55"/>
       <c r="S41" s="55"/>
       <c r="T41" s="55"/>
       <c r="U41" s="55"/>
     </row>
     <row r="42" spans="1:22" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="32"/>
@@ -7926,16 +7874,16 @@
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q42" s="35"/>
+        <v>160</v>
+      </c>
+      <c r="Q42" s="33"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="32"/>
@@ -7951,16 +7899,16 @@
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q43" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="Q43" s="33"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="34" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="32"/>
@@ -7976,16 +7924,16 @@
         <v>1</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q44" s="35"/>
+        <v>162</v>
+      </c>
+      <c r="Q44" s="33"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="48" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="32"/>
@@ -8010,7 +7958,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="40" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="32"/>
@@ -8028,7 +7976,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="41" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="32"/>
@@ -8044,14 +7992,14 @@
         <v>0</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="35"/>
+      <c r="Q47" s="33"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="32"/>
@@ -8067,14 +8015,14 @@
         <v>0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="35"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="32"/>
@@ -8092,14 +8040,14 @@
       <c r="L49" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="Q49" s="35"/>
+      <c r="Q49" s="33"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32"/>
@@ -8117,14 +8065,14 @@
       <c r="L50" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="Q50" s="35"/>
+      <c r="Q50" s="33"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="32"/>
@@ -8140,16 +8088,16 @@
         <v>1</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q51" s="35"/>
+        <v>163</v>
+      </c>
+      <c r="Q51" s="33"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="36" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="32"/>
@@ -8165,10 +8113,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q52" s="35" t="s">
-        <v>185</v>
+        <v>164</v>
+      </c>
+      <c r="Q52" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
@@ -8176,7 +8124,7 @@
       <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="32"/>
@@ -8194,14 +8142,14 @@
       <c r="L53" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="Q53" s="35"/>
+      <c r="Q53" s="33"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="36" t="s">
         <v>109</v>
       </c>
       <c r="B54" s="32"/>
@@ -8217,16 +8165,16 @@
         <v>1</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q54" s="35"/>
+        <v>165</v>
+      </c>
+      <c r="Q54" s="33"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="32"/>
@@ -8242,16 +8190,16 @@
         <v>1</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q55" s="35"/>
+        <v>166</v>
+      </c>
+      <c r="Q55" s="33"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="36" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="32"/>
@@ -8267,16 +8215,16 @@
         <v>1</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q56" s="35"/>
+        <v>167</v>
+      </c>
+      <c r="Q56" s="33"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="41" t="s">
         <v>115</v>
       </c>
       <c r="I58" s="32"/>
@@ -8285,11 +8233,11 @@
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="34"/>
+      <c r="M58" s="41"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
-      <c r="Q58" s="49"/>
+      <c r="Q58" s="39"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -8301,7 +8249,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="44"/>
+      <c r="H60" s="46"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -8374,6 +8322,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q53:U53"/>
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="Q52:U52"/>
@@ -8390,87 +8419,6 @@
     <mergeCell ref="Q43:U43"/>
     <mergeCell ref="Q42:U42"/>
     <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Très Bien">
@@ -8509,35 +8457,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" t="s">
         <v>173</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" t="s">
-        <v>176</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B4" s="27">
         <f>'Eval 3'!N3</f>
@@ -8565,7 +8513,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
@@ -8591,7 +8539,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B6" s="26">
         <v>0</v>
@@ -8615,7 +8563,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B7" s="23">
         <f>SUM(B$4:B$6)</f>
@@ -8644,7 +8592,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G9" s="25">
         <f>IF(G7&lt;10,G7,10+SUM('Eval 3'!K47:K56,'Eval 4'!K47:K56)/2)</f>
@@ -8653,7 +8601,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G10" s="26">
         <v>0</v>
@@ -8661,7 +8609,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G11" s="24">
         <f>G9+G10</f>
